--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\_INSA\gpu\td1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD73EA1-1C01-4664-91C5-B02B5E99B19D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A48131-2A40-464F-9B9D-38E9A5842ABB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{C59C49F9-5F45-4679-9A54-BB019A697CA7}"/>
   </bookViews>
@@ -185,8 +185,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB56867A-8D11-40F7-8D71-8FC1757D5F91}" name="Tableau13" displayName="Tableau13" ref="F2:I5" totalsRowShown="0">
-  <autoFilter ref="F2:I5" xr:uid="{CE4E1F17-D478-4ACE-8F58-D032A530AD26}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB56867A-8D11-40F7-8D71-8FC1757D5F91}" name="Tableau13" displayName="Tableau13" ref="A11:D14" totalsRowShown="0">
+  <autoFilter ref="A11:D14" xr:uid="{CE4E1F17-D478-4ACE-8F58-D032A530AD26}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{BE25BC9D-5FF1-498C-8184-8DD7464E9BD4}" name="Size" dataDxfId="2" dataCellStyle="Milliers"/>
     <tableColumn id="3" xr3:uid="{7300B42C-1892-4136-8D88-9C6CE3E8C8FD}" name="Cores"/>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAC8F62-78BF-444E-8784-59DACF82E481}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,21 +510,15 @@
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,20 +532,8 @@
         <v>3</v>
       </c>
       <c r="E2"/>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>100000000</v>
       </c>
@@ -565,16 +547,8 @@
         <v>352</v>
       </c>
       <c r="E3"/>
-      <c r="F3" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>100000000</v>
       </c>
@@ -588,16 +562,8 @@
         <v>229</v>
       </c>
       <c r="E4"/>
-      <c r="F4" s="1">
-        <v>20000000</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>100000000</v>
       </c>
@@ -608,22 +574,78 @@
         <v>1380</v>
       </c>
       <c r="D5" s="2">
-        <v>1380</v>
+        <v>191</v>
       </c>
       <c r="E5"/>
-      <c r="F5" s="1">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>192</v>
+      </c>
+      <c r="D12" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>317</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>40000000</v>
       </c>
-      <c r="G5">
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="C14" s="2">
+        <v>600</v>
+      </c>
+      <c r="D14" s="2">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\_INSA\gpu\td1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A48131-2A40-464F-9B9D-38E9A5842ABB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CB7765-B7C7-4177-8B37-CB871FB6ECF6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{C59C49F9-5F45-4679-9A54-BB019A697CA7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Size</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Evaluation échelle faible</t>
+  </si>
+  <si>
+    <t>Multiplication</t>
   </si>
 </sst>
 </file>
@@ -172,26 +175,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABA3E52B-0260-44F4-A452-0B7CE62090E8}" name="Tableau1" displayName="Tableau1" ref="A2:D5" totalsRowShown="0">
-  <autoFilter ref="A2:D5" xr:uid="{68DB5242-FECA-40DD-ACC3-ED5C31790BDC}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABA3E52B-0260-44F4-A452-0B7CE62090E8}" name="Tableau1" displayName="Tableau1" ref="A2:E5" totalsRowShown="0">
+  <autoFilter ref="A2:E5" xr:uid="{68DB5242-FECA-40DD-ACC3-ED5C31790BDC}"/>
+  <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{B1831D90-3B30-4EF1-8AC5-E3D3C9DF1268}" name="Size" dataDxfId="5" dataCellStyle="Milliers"/>
     <tableColumn id="3" xr3:uid="{C50900E8-8D4F-44EA-8107-91ED2F0511CD}" name="Cores"/>
     <tableColumn id="6" xr3:uid="{29113E54-2309-45B0-A9BD-232B1CF29629}" name="Addition" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{6DE658FB-6723-4F23-BA49-636D39D19C84}" name="Somme" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{169AECB2-CBE4-4CD6-B36A-629DD82DDB75}" name="Multiplication"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB56867A-8D11-40F7-8D71-8FC1757D5F91}" name="Tableau13" displayName="Tableau13" ref="A11:D14" totalsRowShown="0">
-  <autoFilter ref="A11:D14" xr:uid="{CE4E1F17-D478-4ACE-8F58-D032A530AD26}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB56867A-8D11-40F7-8D71-8FC1757D5F91}" name="Tableau13" displayName="Tableau13" ref="A11:E14" totalsRowShown="0">
+  <autoFilter ref="A11:E14" xr:uid="{CE4E1F17-D478-4ACE-8F58-D032A530AD26}"/>
+  <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{BE25BC9D-5FF1-498C-8184-8DD7464E9BD4}" name="Size" dataDxfId="2" dataCellStyle="Milliers"/>
     <tableColumn id="3" xr3:uid="{7300B42C-1892-4136-8D88-9C6CE3E8C8FD}" name="Cores"/>
     <tableColumn id="6" xr3:uid="{D3E4A364-D859-497D-B598-E207066F3897}" name="Addition" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{14403A34-9736-482D-9F20-CEE0278F0B68}" name="Somme" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{A07B47EE-EA60-4532-85DE-D55B6BA15DAE}" name="Multiplication"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -496,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAC8F62-78BF-444E-8784-59DACF82E481}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +510,7 @@
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -531,7 +536,9 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -541,12 +548,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>1864</v>
+        <v>1931</v>
       </c>
       <c r="D3" s="2">
-        <v>352</v>
-      </c>
-      <c r="E3"/>
+        <v>351</v>
+      </c>
+      <c r="E3">
+        <v>1680</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -556,12 +565,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>1502</v>
+        <v>1556</v>
       </c>
       <c r="D4" s="2">
-        <v>229</v>
-      </c>
-      <c r="E4"/>
+        <v>217</v>
+      </c>
+      <c r="E4">
+        <v>1401</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -571,12 +582,14 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>1380</v>
+        <v>1467</v>
       </c>
       <c r="D5" s="2">
-        <v>191</v>
-      </c>
-      <c r="E5"/>
+        <v>189</v>
+      </c>
+      <c r="E5">
+        <v>1350</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -599,6 +612,9 @@
       <c r="D11" t="s">
         <v>3</v>
       </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -608,10 +624,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D12" s="2">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -622,10 +641,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D13" s="2">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -636,10 +658,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="D14" s="2">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="E14">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
